--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-H.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-H.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-H.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-H.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'H': 150.0 ton, 2.15 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'H': 0.0-300.0 ton, 5.77 COP, 6.39 IPLV liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>1093c9f2-ab07-4a51-b82a-a0c85bc6402b</t>
+          <t>708e4d54-6abe-460f-8341-31c7a93cf519</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>259281.0646821129</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67462.3216259632</v>
+        <v>25102.72635100686</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>131279.4783590124</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>198741.7999849756</v>
+        <v>156382.2047100193</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4192300380863</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2471143539301</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>92652.85016751208</v>
+        <v>34476.12070469846</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>262558.9567180249</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>355211.8068855369</v>
+        <v>297035.0774227233</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.7995711872838</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.2858319422297</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>132339.699303778</v>
+        <v>49243.59519401348</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>393838.4350770373</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>526178.1343808153</v>
+        <v>443082.0302710508</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.1799123364812</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.4207825624414</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>186522.869034761</v>
+        <v>69405.14981895193</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>525117.9134360497</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>711640.7824708107</v>
+        <v>594523.0632550017</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.5602534856786</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.6519662145654</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>81750.71097723935</v>
+        <v>30419.43528181376</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>126694.5391202607</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>208445.2500975001</v>
+        <v>157113.9744020745</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3710215871012</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.3905549704787</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112276.5447838766</v>
+        <v>41778.09644578741</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>253389.0782405215</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>365665.6230243981</v>
+        <v>295167.1746863089</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7031542853136</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4379879155476</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160368.9918734464</v>
+        <v>59673.2934941963</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>380083.6173607822</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>540452.6092342286</v>
+        <v>439756.9108549785</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0352869835259</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.6024530819711</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>226028.0522459488</v>
+        <v>84105.02642704042</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>506778.156481043</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>732806.2087269918</v>
+        <v>590883.1829080834</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3674196817383</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8839504697492</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82030.18450340828</v>
+        <v>30523.42736629414</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>115116.3985369274</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>197146.5830403357</v>
+        <v>145639.8259032215</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2492829568283</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.393589167015</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112660.374129233</v>
+        <v>41920.91932513315</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>230232.7970738547</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>342893.1712030877</v>
+        <v>272153.7163989879</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.4596770247678</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.3677116639639</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>160917.2303794027</v>
+        <v>59877.29301360818</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>345349.1956107821</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>506266.4259901849</v>
+        <v>405226.4886243903</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.6700710927072</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.4596450319695</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>226800.7532539175</v>
+        <v>84392.54843171925</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>460465.5941477095</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>687266.347401627</v>
+        <v>544858.1425794287</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.8804651606466</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.6693892710318</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69112.96035821267</v>
+        <v>25716.92893700392</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>96545.05660901239</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>165658.0169672251</v>
+        <v>122261.9855460163</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.0540141472676</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.2607819265261</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94919.83979155347</v>
+        <v>35319.66742531683</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>193090.1132180248</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>288009.9530095783</v>
+        <v>228409.7806433416</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.0691394056464</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.0811848368072</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>135577.7294844795</v>
+        <v>50448.46605501228</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>289635.1698270371</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>425212.8993115167</v>
+        <v>340083.6358820494</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.0842646640251</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.0011677981418</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191086.6294369909</v>
+        <v>71103.32482609028</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>386180.2264360496</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>577266.8558730405</v>
+        <v>457283.5512621398</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.0993899224038</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.0207308105296</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>65610.59226314782</v>
+        <v>24413.69795188653</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>143355.2211255556</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>208965.8133887034</v>
+        <v>167768.9190774422</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.4383791209903</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.3149859080754</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90109.68238038855</v>
+        <v>33529.80810403207</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>286710.4422511113</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>376820.1246314998</v>
+        <v>320240.2503551433</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.9489804642028</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.4292775784951</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>128707.1930223361</v>
+        <v>47891.93979654705</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>430065.6633766669</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>558772.856399003</v>
+        <v>477957.603173214</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.4595818074152</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.637160842961</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>181403.1241889905</v>
+        <v>67500.09302943147</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>573420.8845022225</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>754824.0086912131</v>
+        <v>640920.9775316541</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.9701831506277</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.9386357014733</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84986.64657361813</v>
+        <v>31623.52674809553</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>142521.2936106723</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>227507.9401842904</v>
+        <v>174144.8203587678</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4295916348127</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.5175543487833</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>116720.7834157059</v>
+        <v>43431.79740840666</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>285042.5872213445</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>401763.3706370504</v>
+        <v>328474.3846297512</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9314054918476</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6784781865499</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>166716.8721934493</v>
+        <v>62035.33942948841</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>427563.8808320168</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>594280.7530254661</v>
+        <v>489599.2202615052</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4332193488825</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9610667280859</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>234974.9129068482</v>
+        <v>87434.15281134073</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>570085.1744426891</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>805060.0873495373</v>
+        <v>657519.3272540298</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.9350332059174</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3653199733914</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>90364.91419415773</v>
+        <v>33624.77984859553</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>134694.1647512073</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>225059.078945365</v>
+        <v>168318.9445998028</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3471134992013</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5801471547513</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>124107.3039503751</v>
+        <v>46180.32131329011</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>269388.3295024146</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>393495.6334527897</v>
+        <v>315568.6508157047</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7664492206247</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.7059219610269</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>177267.3291377524</v>
+        <v>65961.163907029</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>404082.4942536218</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>581349.8233913743</v>
+        <v>470043.6581606509</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1857849420481</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9614778877354</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>249844.9897562897</v>
+        <v>92967.30762981219</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>538776.6590048291</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>788621.6487611188</v>
+        <v>631743.9666346413</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.6051206634716</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3468149348769</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>81684.66605294439</v>
+        <v>30394.85996893554</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>119873.8345471606</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>201558.500600105</v>
+        <v>150268.6945160961</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.1909447141559</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.5015044046953</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>112185.838589255</v>
+        <v>41744.34467550963</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>239747.6690943212</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>351933.5076835762</v>
+        <v>281492.0137698308</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.454111650534</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.5098096055391</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>160239.4326585976</v>
+        <v>59625.08451712268</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>359621.5036414818</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>519860.9363000795</v>
+        <v>419246.5881586045</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7172785869121</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.6358085525874</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>225845.4482609721</v>
+        <v>84037.07949377465</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>479495.3381886424</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>705340.7864496146</v>
+        <v>563532.4176824171</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>285.9804455232902</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>317.8795012458401</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>61097.75085931414</v>
+        <v>22734.46990139008</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>146786.7500612346</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>207884.5009205487</v>
+        <v>169521.2199626247</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.3663191065102</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.3078076743591</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>83911.73946437975</v>
+        <v>31223.55386892948</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>293573.5001224692</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>377485.2395868489</v>
+        <v>324797.0539913987</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.9159715463537</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.4336929077716</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>119854.4281011961</v>
+        <v>44597.8264320932</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>440360.2501837037</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>560214.6782848999</v>
+        <v>484958.0766157969</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.4656239861972</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.6467322987419</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>168925.8167697634</v>
+        <v>62857.28759088126</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>587147.0002449383</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>756072.8170147017</v>
+        <v>650004.2878358195</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.0152764260407</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>290.9469258472701</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>84151.46161673058</v>
+        <v>31312.75446928981</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>149703.8342702195</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>233855.2958869501</v>
+        <v>181016.5887395093</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3971152557525</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5598416767757</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>115573.7391870519</v>
+        <v>43004.9823108764</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>299407.668540439</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>414981.4077274909</v>
+        <v>342412.6508513154</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.9775638448383</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.7665393408388</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>165078.5039399767</v>
+        <v>61425.70268800289</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>449111.5028106585</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>614190.0067506351</v>
+        <v>510537.2054986614</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.5580124339241</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.0937060793052</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>232665.755875505</v>
+        <v>86574.91560066926</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>598815.337080878</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>831481.0929563829</v>
+        <v>685390.2526815472</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.13846102301</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.541341892175</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>93777.79072145336</v>
+        <v>34894.71102602339</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>145627.7171346228</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>239405.5078560761</v>
+        <v>180522.4281606462</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3540830007184</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.67603399045</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>128794.5535128338</v>
+        <v>47924.44663049522</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>291255.4342692455</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>420049.9877820794</v>
+        <v>339179.8808997407</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8914993347701</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8834025749485</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>183962.3114997203</v>
+        <v>68452.36649399449</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>436883.1514038683</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>620845.4629035887</v>
+        <v>505335.5178978628</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.4289156688218</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.2254538165391</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>259281.0646821129</v>
+        <v>96478.47061652117</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>582510.8685384911</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>841791.933220604</v>
+        <v>678989.3391550123</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.9663320028735</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.7021877152217</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>89043.06187609545</v>
+        <v>33132.91867013304</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>134558.3986544444</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>223601.4605305398</v>
+        <v>167691.3173245774</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2372223414078</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6493084285881</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>122291.8700634709</v>
+        <v>45504.79845885929</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>269116.7973088888</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>391408.6673723597</v>
+        <v>314621.595767748</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.6577780161489</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.7745012560356</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>174674.2737242987</v>
+        <v>64996.28812321257</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>403675.1959633331</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>578349.4696876318</v>
+        <v>468671.4840865457</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.07833369089</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.0279900297372</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>246190.2728585786</v>
+        <v>91607.38766319289</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>538233.5946177775</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>784423.8674763561</v>
+        <v>629840.9822809704</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.4988893656312</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.4097747496928</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>55150.50057776473</v>
+        <v>20521.49838246703</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>141574.0651660493</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>196724.565743814</v>
+        <v>162095.5635485163</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.202652835252</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.2337230546804</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>75743.77731952189</v>
+        <v>28184.25558173801</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>283148.1303320986</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>358891.9076516205</v>
+        <v>311332.3859138367</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.6997501149484</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.3102620900144</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>108187.8074605917</v>
+        <v>40256.67750149678</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>424722.195498148</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>532910.0029587396</v>
+        <v>464978.8729996448</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.1968473946448</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.4654717040381</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>152482.5910009741</v>
+        <v>56738.76414174333</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>566296.2606641973</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>718778.8516651713</v>
+        <v>623035.0248059406</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.6939446743412</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>290.6993518967518</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>80449.82966470208</v>
+        <v>29935.37741341105</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>148242.1610989026</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>228691.9907636046</v>
+        <v>178177.5385123136</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2731656673171</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5254427258576</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>110489.9125063143</v>
+        <v>41113.29066868738</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>296484.3221978052</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>406974.2347041195</v>
+        <v>337597.6128664925</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.8407757790786</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.7131939844743</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>157817.0749280795</v>
+        <v>58723.72533220484</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>444726.4832967077</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>602543.5582247872</v>
+        <v>503450.2086289126</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.4083858908401</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.0161151561194</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>222431.3169299976</v>
+        <v>82766.68140396348</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>592968.6443956103</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>815399.961325608</v>
+        <v>675735.3257995738</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.9759960026016</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.4342062407928</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>93451.45803824342</v>
+        <v>34773.28265165722</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>147917.0556871741</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>241368.5137254175</v>
+        <v>182690.3383388314</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2697277888685</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6891540792498</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>128346.3677333723</v>
+        <v>47757.67672538267</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>295834.1113743483</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>424180.4791077206</v>
+        <v>343591.788099731</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.8339000221814</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.9110094271877</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>183322.1501751747</v>
+        <v>68214.16249858998</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>443751.1670615224</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>627073.3172366971</v>
+        <v>511965.3295601124</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.3980722554944</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.2670787567184</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>258378.8053636506</v>
+        <v>96142.73997127918</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>591668.2227486966</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>850047.0281123471</v>
+        <v>687810.9627199757</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.9622444888073</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.757362067842</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>92348.76217543696</v>
+        <v>34362.96957874089</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>140598.7489308642</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>232947.5111063011</v>
+        <v>174961.718509605</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1923391999062</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.7119762321391</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>126831.9236393282</v>
+        <v>47194.15215714344</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>281197.4978617283</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>408029.4215010565</v>
+        <v>328391.6500188718</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.6791228442569</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.8859479196465</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>181159.0102862687</v>
+        <v>67409.25825898764</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>421796.2467925925</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>602955.2570788611</v>
+        <v>489205.5050515801</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.1659064886075</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.1929785067363</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.03596348724348687</v>
+        <v>0.028784007561478</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>255330.0221162583</v>
+        <v>95008.28788427352</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>562394.9957234566</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>817725.0178397149</v>
+        <v>657403.2836077302</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.6526901329581</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.6330679934086</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.02260307306749802</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.02260307306749802</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.02260307306749802</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.02260307306749802</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.028784007561478</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.028784007561478</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.028784007561478</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.028784007561478</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>